--- a/expresiones regulares.xlsx
+++ b/expresiones regulares.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="53">
   <si>
     <t>A-001</t>
   </si>
@@ -96,9 +96,6 @@
     <t>I-003</t>
   </si>
   <si>
-    <t>32/12/2024</t>
-  </si>
-  <si>
     <t>J-003Z</t>
   </si>
   <si>
@@ -150,15 +147,9 @@
     <t>Producto 18</t>
   </si>
   <si>
-    <t>30/02/2024</t>
-  </si>
-  <si>
     <t>customer@gmail.com</t>
   </si>
   <si>
-    <t>31/06/2024</t>
-  </si>
-  <si>
     <t>O-003</t>
   </si>
   <si>
@@ -169,12 +160,33 @@
   </si>
   <si>
     <t>customer@gmail.</t>
+  </si>
+  <si>
+    <t>2024-04-32</t>
+  </si>
+  <si>
+    <t>2024-02-30</t>
+  </si>
+  <si>
+    <t>2024-06-31</t>
+  </si>
+  <si>
+    <t>2023-02-29</t>
+  </si>
+  <si>
+    <t>Q-003</t>
+  </si>
+  <si>
+    <t>Producto 19</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -248,16 +260,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -539,16 +552,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30" bestFit="1" customWidth="1"/>
   </cols>
@@ -570,7 +583,7 @@
         <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -580,7 +593,7 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="7">
         <v>45402</v>
       </c>
       <c r="D2">
@@ -589,8 +602,8 @@
       <c r="E2">
         <v>100.5</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>29</v>
+      <c r="F2" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -600,7 +613,7 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="7">
         <v>45402</v>
       </c>
       <c r="D3">
@@ -609,8 +622,8 @@
       <c r="E3">
         <v>55.65</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>30</v>
+      <c r="F3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -620,7 +633,7 @@
       <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="7">
         <v>45404</v>
       </c>
       <c r="D4">
@@ -629,8 +642,8 @@
       <c r="E4">
         <v>5.9</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>31</v>
+      <c r="F4" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -640,7 +653,7 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="7">
         <v>45405</v>
       </c>
       <c r="D5">
@@ -649,8 +662,8 @@
       <c r="E5">
         <v>20.94</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>32</v>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -660,27 +673,27 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="7">
         <v>45406</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
         <v>2.33</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="7">
         <v>45406</v>
       </c>
       <c r="D7">
@@ -689,16 +702,16 @@
       <c r="E7">
         <v>45</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>29</v>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="2">
+      <c r="B8" s="3"/>
+      <c r="C8" s="7">
         <v>45406</v>
       </c>
       <c r="D8">
@@ -707,8 +720,8 @@
       <c r="E8">
         <v>12.4</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>29</v>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -718,15 +731,15 @@
       <c r="B9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="8"/>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>29</v>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -736,23 +749,23 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="7">
         <v>45406</v>
       </c>
       <c r="D10">
         <v>6</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5" t="s">
-        <v>29</v>
+      <c r="E10" s="3"/>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="A11" s="3"/>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <v>45406</v>
       </c>
       <c r="D11">
@@ -761,8 +774,8 @@
       <c r="E11">
         <v>9.6</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>29</v>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -772,8 +785,8 @@
       <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
+      <c r="C12" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D12">
         <v>5</v>
@@ -781,18 +794,18 @@
       <c r="E12">
         <v>20</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>29</v>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2">
+      <c r="C13" s="7">
         <v>45406</v>
       </c>
       <c r="D13">
@@ -801,19 +814,19 @@
       <c r="E13">
         <v>65</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>29</v>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>43</v>
+      <c r="C14" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -821,59 +834,59 @@
       <c r="E14">
         <v>89</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>29</v>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
         <v>35</v>
       </c>
-      <c r="B15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="2">
-        <v>45350</v>
+      <c r="C15" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15">
-        <v>90</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>44</v>
+        <v>120</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45350</v>
       </c>
       <c r="D16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>120</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>44</v>
+        <v>90</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2">
-        <v>45473</v>
+        <v>39</v>
+      </c>
+      <c r="C17" s="7">
+        <v>45351</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -881,48 +894,68 @@
       <c r="E17">
         <v>121</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>44</v>
+      <c r="F17" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2">
-        <v>45405</v>
+        <v>40</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>23</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>48</v>
+        <v>121</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2">
+        <v>41</v>
+      </c>
+      <c r="C19" s="7">
         <v>45405</v>
       </c>
       <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>23</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="7">
+        <v>45405</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>56</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>49</v>
+      <c r="F20" s="6" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -931,15 +964,16 @@
     <hyperlink ref="F3:F13" r:id="rId2" display="customer1@gmail.com"/>
     <hyperlink ref="F3" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F18" r:id="rId5"/>
-    <hyperlink ref="F19" r:id="rId6"/>
-    <hyperlink ref="F6" r:id="rId7"/>
-    <hyperlink ref="F14" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F16" r:id="rId10"/>
-    <hyperlink ref="F17" r:id="rId11"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F14" r:id="rId6"/>
+    <hyperlink ref="F15" r:id="rId7"/>
+    <hyperlink ref="F16" r:id="rId8"/>
+    <hyperlink ref="F17" r:id="rId9"/>
+    <hyperlink ref="F19" r:id="rId10"/>
+    <hyperlink ref="F20" r:id="rId11" display="customer1@gmail.com"/>
+    <hyperlink ref="F18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>